--- a/Cronograma/Cronograma335.xlsx
+++ b/Cronograma/Cronograma335.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="7965"/>
+    <workbookView windowWidth="28800" windowHeight="12885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="236">
   <si>
     <t>Cronograma</t>
   </si>
@@ -210,28 +210,16 @@
     <t>=I5</t>
   </si>
   <si>
-    <t>Operadores lineares</t>
-  </si>
-  <si>
     <t>=J5</t>
   </si>
   <si>
-    <t>Núcleo e imagem de uma transformação linear</t>
-  </si>
-  <si>
     <t>=K5</t>
   </si>
   <si>
-    <t>Isormorfismos</t>
-  </si>
-  <si>
     <t>=G6</t>
   </si>
   <si>
     <t>=H6</t>
-  </si>
-  <si>
-    <t>Transformações lineares entre dois espaços</t>
   </si>
   <si>
     <t>=I6</t>
@@ -1399,7 +1387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1450,10 +1438,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1801,8 +1795,8 @@
   <sheetPr/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1815,13 +1809,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" ht="16.5" spans="1:5">
       <c r="A2" s="11" t="s">
@@ -1830,7 +1824,7 @@
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -1874,7 +1868,7 @@
       <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" ht="31.5" spans="1:5">
       <c r="A5" s="12">
@@ -1992,7 +1986,7 @@
       <c r="B11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="13">
@@ -2118,7 +2112,7 @@
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="15">
@@ -2488,7 +2482,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="30" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="14"/>
@@ -2511,8 +2505,8 @@
   <sheetPr/>
   <dimension ref="A1:U259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C259"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A259" sqref="A1:D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2579,7 +2573,7 @@
         <f>O3&amp;P3&amp;Q3</f>
         <v>=G3</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="23" t="s">
         <v>44</v>
       </c>
       <c r="U3" t="str">
@@ -2673,7 +2667,7 @@
         <f t="shared" si="1"/>
         <v>=I3</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="24" t="s">
         <v>48</v>
       </c>
       <c r="U5" t="str">
@@ -2814,7 +2808,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J9" s="13">
         <v>6</v>
@@ -2842,7 +2836,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" s="13">
         <v>7</v>
@@ -2867,7 +2861,7 @@
       <c r="T10" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="25">
         <f>G4</f>
         <v>43683</v>
       </c>
@@ -2890,8 +2884,8 @@
       <c r="H11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>14</v>
+      <c r="I11" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="J11" s="15">
         <v>8</v>
@@ -2939,8 +2933,8 @@
       <c r="H12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>15</v>
+      <c r="I12" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="13">
         <v>9</v>
@@ -2988,8 +2982,8 @@
       <c r="H13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>20</v>
+      <c r="I13" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="13">
         <v>10</v>
@@ -3033,7 +3027,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J14" s="13">
         <v>11</v>
@@ -3076,14 +3070,14 @@
       <c r="H15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>22</v>
+      <c r="I15" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="J15" s="13">
         <v>12</v>
       </c>
       <c r="K15" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3158,7 +3152,7 @@
       <c r="T17" t="s">
         <v>61</v>
       </c>
-      <c r="U17" s="23">
+      <c r="U17" s="25">
         <f>G5</f>
         <v>43685</v>
       </c>
@@ -3181,8 +3175,8 @@
       <c r="H18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>23</v>
+      <c r="I18" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="J18" s="13">
         <v>15</v>
@@ -3230,8 +3224,8 @@
       <c r="H19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="18" t="s">
-        <v>24</v>
+      <c r="I19" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="J19" s="15">
         <v>16</v>
@@ -3280,7 +3274,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="J20" s="13">
         <v>17</v>
@@ -3303,7 +3297,7 @@
         <v>=J5</v>
       </c>
       <c r="T20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U20">
         <f>J5</f>
@@ -3323,8 +3317,8 @@
       <c r="H21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>66</v>
+      <c r="I21" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="J21" s="13">
         <v>18</v>
@@ -3347,7 +3341,7 @@
         <v>=K5</v>
       </c>
       <c r="T21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U21">
         <f>K5</f>
@@ -3367,8 +3361,8 @@
       <c r="H22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>68</v>
+      <c r="I22" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="J22" s="13">
         <v>19</v>
@@ -3396,7 +3390,7 @@
         <v>8</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J23" s="13">
         <v>20</v>
@@ -3447,9 +3441,9 @@
         <v>=G6</v>
       </c>
       <c r="T24" t="s">
-        <v>69</v>
-      </c>
-      <c r="U24" s="23">
+        <v>66</v>
+      </c>
+      <c r="U24" s="25">
         <f>G6</f>
         <v>43690</v>
       </c>
@@ -3496,7 +3490,7 @@
         <v>=H6</v>
       </c>
       <c r="T25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U25" t="str">
         <f>H6</f>
@@ -3522,7 +3516,7 @@
         <v>6</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="J26" s="13">
         <v>23</v>
@@ -3545,7 +3539,7 @@
         <v>=I6</v>
       </c>
       <c r="T26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="U26" t="str">
         <f>I6</f>
@@ -3594,7 +3588,7 @@
         <v>=J6</v>
       </c>
       <c r="T27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U27">
         <f>J6</f>
@@ -3614,14 +3608,14 @@
       <c r="H28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>29</v>
+      <c r="I28" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="J28" s="15">
         <v>25</v>
       </c>
       <c r="K28" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O28" t="s">
         <v>42</v>
@@ -3638,7 +3632,7 @@
         <v>=K6</v>
       </c>
       <c r="T28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U28">
         <f>K6</f>
@@ -3738,9 +3732,9 @@
         <v>=G7</v>
       </c>
       <c r="T31" t="s">
-        <v>75</v>
-      </c>
-      <c r="U31" s="23">
+        <v>71</v>
+      </c>
+      <c r="U31" s="25">
         <f>G7</f>
         <v>43692</v>
       </c>
@@ -3787,7 +3781,7 @@
         <v>=H7</v>
       </c>
       <c r="T32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U32" t="str">
         <f>H7</f>
@@ -3836,7 +3830,7 @@
         <v>=I7</v>
       </c>
       <c r="T33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="U33" t="str">
         <f>I7</f>
@@ -3885,7 +3879,7 @@
         <v>=J7</v>
       </c>
       <c r="T34" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="U34">
         <f>J7</f>
@@ -3929,7 +3923,7 @@
         <v>=K7</v>
       </c>
       <c r="T35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="U35">
         <f>K7</f>
@@ -4029,9 +4023,9 @@
         <v>=G8</v>
       </c>
       <c r="T38" t="s">
-        <v>80</v>
-      </c>
-      <c r="U38" s="23">
+        <v>76</v>
+      </c>
+      <c r="U38" s="25">
         <f>G8</f>
         <v>43697</v>
       </c>
@@ -4053,7 +4047,7 @@
       <c r="H39" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="22" t="s">
         <v>37</v>
       </c>
       <c r="J39" s="15">
@@ -4077,7 +4071,7 @@
         <v>=H8</v>
       </c>
       <c r="T39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="U39" t="str">
         <f>H8</f>
@@ -4110,7 +4104,7 @@
         <v>=I8</v>
       </c>
       <c r="T40" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="U40" t="str">
         <f>I8</f>
@@ -4143,7 +4137,7 @@
         <v>=J8</v>
       </c>
       <c r="T41" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U41">
         <f>J8</f>
@@ -4171,7 +4165,7 @@
         <v>=K8</v>
       </c>
       <c r="T42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U42">
         <f>K8</f>
@@ -4223,9 +4217,9 @@
         <v>=G9</v>
       </c>
       <c r="T45" t="s">
-        <v>85</v>
-      </c>
-      <c r="U45" s="23">
+        <v>81</v>
+      </c>
+      <c r="U45" s="25">
         <f>G9</f>
         <v>43699</v>
       </c>
@@ -4236,7 +4230,7 @@
       </c>
       <c r="B46" s="9" t="str">
         <f t="shared" si="17"/>
-        <v>Subespaços (exemplos, interseção e soma dos subespaços)</v>
+        <v>Combinações lineares, espaços gerados, depêndencia e indepêndencia linear</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>55</v>
@@ -4256,7 +4250,7 @@
         <v>=H9</v>
       </c>
       <c r="T46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U46" t="str">
         <f>H9</f>
@@ -4289,11 +4283,11 @@
         <v>=I9</v>
       </c>
       <c r="T47" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U47" t="str">
         <f>I9</f>
-        <v>Subespaços (exemplos, interseção e soma dos subespaços)</v>
+        <v>Combinações lineares, espaços gerados, depêndencia e indepêndencia linear</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -4322,7 +4316,7 @@
         <v>=J9</v>
       </c>
       <c r="T48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U48">
         <f>J9</f>
@@ -4350,7 +4344,7 @@
         <v>=K9</v>
       </c>
       <c r="T49" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="U49">
         <f>K9</f>
@@ -4402,9 +4396,9 @@
         <v>=G10</v>
       </c>
       <c r="T52" t="s">
-        <v>90</v>
-      </c>
-      <c r="U52" s="23">
+        <v>86</v>
+      </c>
+      <c r="U52" s="25">
         <f>G10</f>
         <v>43704</v>
       </c>
@@ -4415,7 +4409,7 @@
       </c>
       <c r="B53" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>Combinações lineares, espaços gerados, depêndencia e indepêndencia linear</v>
+        <v>Base e dimensão</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>55</v>
@@ -4435,7 +4429,7 @@
         <v>=H10</v>
       </c>
       <c r="T53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U53" t="str">
         <f>H10</f>
@@ -4468,11 +4462,11 @@
         <v>=I10</v>
       </c>
       <c r="T54" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="U54" t="str">
         <f>I10</f>
-        <v>Combinações lineares, espaços gerados, depêndencia e indepêndencia linear</v>
+        <v>Base e dimensão</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4501,7 +4495,7 @@
         <v>=J10</v>
       </c>
       <c r="T55" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="U55">
         <f>J10</f>
@@ -4529,7 +4523,7 @@
         <v>=K10</v>
       </c>
       <c r="T56" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U56">
         <f>K10</f>
@@ -4581,9 +4575,9 @@
         <v>=G11</v>
       </c>
       <c r="T59" t="s">
-        <v>95</v>
-      </c>
-      <c r="U59" s="23">
+        <v>91</v>
+      </c>
+      <c r="U59" s="25">
         <f>G11</f>
         <v>43706</v>
       </c>
@@ -4594,7 +4588,7 @@
       </c>
       <c r="B60" s="9" t="str">
         <f t="shared" si="23"/>
-        <v>Base e dimensão</v>
+        <v>Matriz de mudança de base</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>55</v>
@@ -4614,7 +4608,7 @@
         <v>=H11</v>
       </c>
       <c r="T60" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="U60" t="str">
         <f>H11</f>
@@ -4647,11 +4641,11 @@
         <v>=I11</v>
       </c>
       <c r="T61" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="U61" t="str">
         <f>I11</f>
-        <v>Base e dimensão</v>
+        <v>Matriz de mudança de base</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4680,7 +4674,7 @@
         <v>=J11</v>
       </c>
       <c r="T62" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U62">
         <f>J11</f>
@@ -4708,7 +4702,7 @@
         <v>=K11</v>
       </c>
       <c r="T63" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U63">
         <f>K11</f>
@@ -4760,9 +4754,9 @@
         <v>=G12</v>
       </c>
       <c r="T66" t="s">
-        <v>100</v>
-      </c>
-      <c r="U66" s="23">
+        <v>96</v>
+      </c>
+      <c r="U66" s="25">
         <f>G12</f>
         <v>43711</v>
       </c>
@@ -4773,7 +4767,7 @@
       </c>
       <c r="B67" s="9" t="str">
         <f t="shared" si="26"/>
-        <v>Matriz de mudança de base</v>
+        <v>Subespaços (exemplos, interseção e soma dos subespaços)</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>55</v>
@@ -4793,7 +4787,7 @@
         <v>=H12</v>
       </c>
       <c r="T67" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U67" t="str">
         <f>H12</f>
@@ -4826,11 +4820,11 @@
         <v>=I12</v>
       </c>
       <c r="T68" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="U68" t="str">
         <f>I12</f>
-        <v>Matriz de mudança de base</v>
+        <v>Subespaços (exemplos, interseção e soma dos subespaços)</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4859,7 +4853,7 @@
         <v>=J12</v>
       </c>
       <c r="T69" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="U69">
         <f>J12</f>
@@ -4887,7 +4881,7 @@
         <v>=K12</v>
       </c>
       <c r="T70" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="U70">
         <f>K12</f>
@@ -4939,9 +4933,9 @@
         <v>=G13</v>
       </c>
       <c r="T73" t="s">
-        <v>105</v>
-      </c>
-      <c r="U73" s="23">
+        <v>101</v>
+      </c>
+      <c r="U73" s="25">
         <f>G13</f>
         <v>43713</v>
       </c>
@@ -4952,7 +4946,7 @@
       </c>
       <c r="B74" s="9" t="str">
         <f t="shared" si="29"/>
-        <v>Transformações lineares</v>
+        <v>Subespaços (exemplos, interseção e soma dos subespaços)</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>55</v>
@@ -4972,7 +4966,7 @@
         <v>=H13</v>
       </c>
       <c r="T74" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="U74" t="str">
         <f>H13</f>
@@ -5005,11 +4999,11 @@
         <v>=I13</v>
       </c>
       <c r="T75" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="U75" t="str">
         <f>I13</f>
-        <v>Transformações lineares</v>
+        <v>Subespaços (exemplos, interseção e soma dos subespaços)</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5038,7 +5032,7 @@
         <v>=J13</v>
       </c>
       <c r="T76" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="U76">
         <f>J13</f>
@@ -5066,7 +5060,7 @@
         <v>=K13</v>
       </c>
       <c r="T77" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U77">
         <f>K13</f>
@@ -5118,9 +5112,9 @@
         <v>=G14</v>
       </c>
       <c r="T80" t="s">
-        <v>110</v>
-      </c>
-      <c r="U80" s="23">
+        <v>106</v>
+      </c>
+      <c r="U80" s="25">
         <f>G14</f>
         <v>43718</v>
       </c>
@@ -5131,7 +5125,7 @@
       </c>
       <c r="B81" s="9" t="str">
         <f t="shared" si="31"/>
-        <v>Núcleo e nulidade, Imagem e posto</v>
+        <v>Aula de Exercícios</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>55</v>
@@ -5151,7 +5145,7 @@
         <v>=H14</v>
       </c>
       <c r="T81" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="U81" t="str">
         <f>H14</f>
@@ -5184,11 +5178,11 @@
         <v>=I14</v>
       </c>
       <c r="T82" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="U82" t="str">
         <f>I14</f>
-        <v>Núcleo e nulidade, Imagem e posto</v>
+        <v>Aula de Exercícios</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5217,7 +5211,7 @@
         <v>=J14</v>
       </c>
       <c r="T83" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="U83">
         <f>J14</f>
@@ -5245,7 +5239,7 @@
         <v>=K14</v>
       </c>
       <c r="T84" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="U84">
         <f>K14</f>
@@ -5297,9 +5291,9 @@
         <v>=G15</v>
       </c>
       <c r="T87" t="s">
-        <v>115</v>
-      </c>
-      <c r="U87" s="23">
+        <v>111</v>
+      </c>
+      <c r="U87" s="25">
         <f>G15</f>
         <v>43720</v>
       </c>
@@ -5310,7 +5304,7 @@
       </c>
       <c r="B88" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>Teorema do núcleo e imagem</v>
+        <v>Não Haverá aula</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>55</v>
@@ -5330,7 +5324,7 @@
         <v>=H15</v>
       </c>
       <c r="T88" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U88" t="str">
         <f>H15</f>
@@ -5363,11 +5357,11 @@
         <v>=I15</v>
       </c>
       <c r="T89" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="U89" t="str">
         <f>I15</f>
-        <v>Teorema do núcleo e imagem</v>
+        <v>Não Haverá aula</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5376,7 +5370,7 @@
       </c>
       <c r="B90" s="10">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>55</v>
@@ -5396,7 +5390,7 @@
         <v>=J15</v>
       </c>
       <c r="T90" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="U90">
         <f>J15</f>
@@ -5424,11 +5418,11 @@
         <v>=K15</v>
       </c>
       <c r="T91" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="U91">
         <f>K15</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -5476,9 +5470,9 @@
         <v>=G16</v>
       </c>
       <c r="T94" t="s">
-        <v>120</v>
-      </c>
-      <c r="U94" s="23">
+        <v>116</v>
+      </c>
+      <c r="U94" s="25">
         <f>G16</f>
         <v>43725</v>
       </c>
@@ -5509,7 +5503,7 @@
         <v>=H16</v>
       </c>
       <c r="T95" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="U95" t="str">
         <f>H16</f>
@@ -5542,7 +5536,7 @@
         <v>=I16</v>
       </c>
       <c r="T96" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="U96" t="str">
         <f>I16</f>
@@ -5575,7 +5569,7 @@
         <v>=J16</v>
       </c>
       <c r="T97" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="U97">
         <f>J16</f>
@@ -5603,7 +5597,7 @@
         <v>=K16</v>
       </c>
       <c r="T98" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U98">
         <f>K16</f>
@@ -5655,9 +5649,9 @@
         <v>=G17</v>
       </c>
       <c r="T101" t="s">
-        <v>125</v>
-      </c>
-      <c r="U101" s="23">
+        <v>121</v>
+      </c>
+      <c r="U101" s="25">
         <f>G17</f>
         <v>43727</v>
       </c>
@@ -5688,7 +5682,7 @@
         <v>=H17</v>
       </c>
       <c r="T102" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="U102" t="str">
         <f>H17</f>
@@ -5721,7 +5715,7 @@
         <v>=I17</v>
       </c>
       <c r="T103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="U103" t="str">
         <f>I17</f>
@@ -5754,7 +5748,7 @@
         <v>=J17</v>
       </c>
       <c r="T104" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="U104">
         <f>J17</f>
@@ -5782,7 +5776,7 @@
         <v>=K17</v>
       </c>
       <c r="T105" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="U105">
         <f>K17</f>
@@ -5834,9 +5828,9 @@
         <v>=G18</v>
       </c>
       <c r="T108" t="s">
-        <v>130</v>
-      </c>
-      <c r="U108" s="23">
+        <v>126</v>
+      </c>
+      <c r="U108" s="25">
         <f>G18</f>
         <v>43732</v>
       </c>
@@ -5847,7 +5841,7 @@
       </c>
       <c r="B109" s="9" t="str">
         <f t="shared" si="43"/>
-        <v>Soma e composição de transformações lineares</v>
+        <v>Transformações lineares</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>55</v>
@@ -5867,7 +5861,7 @@
         <v>=H18</v>
       </c>
       <c r="T109" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="U109" t="str">
         <f>H18</f>
@@ -5900,11 +5894,11 @@
         <v>=I18</v>
       </c>
       <c r="T110" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="U110" t="str">
         <f>I18</f>
-        <v>Soma e composição de transformações lineares</v>
+        <v>Transformações lineares</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -5933,7 +5927,7 @@
         <v>=J18</v>
       </c>
       <c r="T111" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="U111">
         <f>J18</f>
@@ -5961,7 +5955,7 @@
         <v>=K18</v>
       </c>
       <c r="T112" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="U112">
         <f>K18</f>
@@ -6013,9 +6007,9 @@
         <v>=G19</v>
       </c>
       <c r="T115" t="s">
-        <v>135</v>
-      </c>
-      <c r="U115" s="23">
+        <v>131</v>
+      </c>
+      <c r="U115" s="25">
         <f>G19</f>
         <v>43734</v>
       </c>
@@ -6026,7 +6020,7 @@
       </c>
       <c r="B116" s="9" t="str">
         <f t="shared" si="46"/>
-        <v>Transformações invertíveis</v>
+        <v>Núcleo e nulidade, Imagem e posto</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>55</v>
@@ -6046,7 +6040,7 @@
         <v>=H19</v>
       </c>
       <c r="T116" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U116" t="str">
         <f>H19</f>
@@ -6079,11 +6073,11 @@
         <v>=I19</v>
       </c>
       <c r="T117" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="U117" t="str">
         <f>I19</f>
-        <v>Transformações invertíveis</v>
+        <v>Núcleo e nulidade, Imagem e posto</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -6112,7 +6106,7 @@
         <v>=J19</v>
       </c>
       <c r="T118" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="U118">
         <f>J19</f>
@@ -6140,7 +6134,7 @@
         <v>=K19</v>
       </c>
       <c r="T119" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U119">
         <f>K19</f>
@@ -6192,9 +6186,9 @@
         <v>=G20</v>
       </c>
       <c r="T122" t="s">
-        <v>140</v>
-      </c>
-      <c r="U122" s="23">
+        <v>136</v>
+      </c>
+      <c r="U122" s="25">
         <f>G20</f>
         <v>43739</v>
       </c>
@@ -6205,7 +6199,7 @@
       </c>
       <c r="B123" s="9" t="str">
         <f t="shared" si="48"/>
-        <v>Operadores lineares</v>
+        <v>Teorema do núcleo e imagem</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>55</v>
@@ -6225,7 +6219,7 @@
         <v>=H20</v>
       </c>
       <c r="T123" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="U123" t="str">
         <f>H20</f>
@@ -6258,11 +6252,11 @@
         <v>=I20</v>
       </c>
       <c r="T124" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="U124" t="str">
         <f>I20</f>
-        <v>Operadores lineares</v>
+        <v>Teorema do núcleo e imagem</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -6291,7 +6285,7 @@
         <v>=J20</v>
       </c>
       <c r="T125" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U125">
         <f>J20</f>
@@ -6319,7 +6313,7 @@
         <v>=K20</v>
       </c>
       <c r="T126" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="U126">
         <f>K20</f>
@@ -6371,9 +6365,9 @@
         <v>=G21</v>
       </c>
       <c r="T129" t="s">
-        <v>145</v>
-      </c>
-      <c r="U129" s="23">
+        <v>141</v>
+      </c>
+      <c r="U129" s="25">
         <f>G21</f>
         <v>43741</v>
       </c>
@@ -6384,7 +6378,7 @@
       </c>
       <c r="B130" s="9" t="str">
         <f t="shared" si="51"/>
-        <v>Núcleo e imagem de uma transformação linear</v>
+        <v>Soma e composição de transformações lineares</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>55</v>
@@ -6404,7 +6398,7 @@
         <v>=H21</v>
       </c>
       <c r="T130" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="U130" t="str">
         <f>H21</f>
@@ -6437,11 +6431,11 @@
         <v>=I21</v>
       </c>
       <c r="T131" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="U131" t="str">
         <f>I21</f>
-        <v>Núcleo e imagem de uma transformação linear</v>
+        <v>Soma e composição de transformações lineares</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -6470,7 +6464,7 @@
         <v>=J21</v>
       </c>
       <c r="T132" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U132">
         <f>J21</f>
@@ -6498,7 +6492,7 @@
         <v>=K21</v>
       </c>
       <c r="T133" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="U133">
         <f>K21</f>
@@ -6550,9 +6544,9 @@
         <v>=G22</v>
       </c>
       <c r="T136" t="s">
-        <v>150</v>
-      </c>
-      <c r="U136" s="23">
+        <v>146</v>
+      </c>
+      <c r="U136" s="25">
         <f>G22</f>
         <v>43746</v>
       </c>
@@ -6563,7 +6557,7 @@
       </c>
       <c r="B137" s="9" t="str">
         <f t="shared" si="54"/>
-        <v>Isormorfismos</v>
+        <v>Transformações invertíveis</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>55</v>
@@ -6583,7 +6577,7 @@
         <v>=H22</v>
       </c>
       <c r="T137" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="U137" t="str">
         <f>H22</f>
@@ -6616,11 +6610,11 @@
         <v>=I22</v>
       </c>
       <c r="T138" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U138" t="str">
         <f>I22</f>
-        <v>Isormorfismos</v>
+        <v>Transformações invertíveis</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -6649,7 +6643,7 @@
         <v>=J22</v>
       </c>
       <c r="T139" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="U139">
         <f>J22</f>
@@ -6677,7 +6671,7 @@
         <v>=K22</v>
       </c>
       <c r="T140" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="U140">
         <f>K22</f>
@@ -6729,9 +6723,9 @@
         <v>=G23</v>
       </c>
       <c r="T143" t="s">
-        <v>155</v>
-      </c>
-      <c r="U143" s="23">
+        <v>151</v>
+      </c>
+      <c r="U143" s="25">
         <f>G23</f>
         <v>43748</v>
       </c>
@@ -6742,7 +6736,7 @@
       </c>
       <c r="B144" s="9" t="str">
         <f t="shared" si="57"/>
-        <v>Matrizes de transformações</v>
+        <v>Isomorfismos</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>55</v>
@@ -6762,7 +6756,7 @@
         <v>=H23</v>
       </c>
       <c r="T144" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="U144" t="str">
         <f>H23</f>
@@ -6795,11 +6789,11 @@
         <v>=I23</v>
       </c>
       <c r="T145" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U145" t="str">
         <f>I23</f>
-        <v>Matrizes de transformações</v>
+        <v>Isomorfismos</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -6828,7 +6822,7 @@
         <v>=J23</v>
       </c>
       <c r="T146" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="U146">
         <f>J23</f>
@@ -6856,7 +6850,7 @@
         <v>=K23</v>
       </c>
       <c r="T147" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="U147">
         <f>K23</f>
@@ -6908,9 +6902,9 @@
         <v>=G24</v>
       </c>
       <c r="T150" t="s">
-        <v>160</v>
-      </c>
-      <c r="U150" s="23">
+        <v>156</v>
+      </c>
+      <c r="U150" s="25">
         <f>G24</f>
         <v>43753</v>
       </c>
@@ -6941,7 +6935,7 @@
         <v>=H24</v>
       </c>
       <c r="T151" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="U151" t="str">
         <f>H24</f>
@@ -6974,7 +6968,7 @@
         <v>=I24</v>
       </c>
       <c r="T152" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U152" t="str">
         <f>I24</f>
@@ -7007,7 +7001,7 @@
         <v>=J24</v>
       </c>
       <c r="T153" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="U153">
         <f>J24</f>
@@ -7035,7 +7029,7 @@
         <v>=K24</v>
       </c>
       <c r="T154" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="U154">
         <f>K24</f>
@@ -7087,9 +7081,9 @@
         <v>=G25</v>
       </c>
       <c r="T157" t="s">
-        <v>165</v>
-      </c>
-      <c r="U157" s="23">
+        <v>161</v>
+      </c>
+      <c r="U157" s="25">
         <f>G25</f>
         <v>43755</v>
       </c>
@@ -7120,7 +7114,7 @@
         <v>=H25</v>
       </c>
       <c r="T158" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="U158" t="str">
         <f>H25</f>
@@ -7153,7 +7147,7 @@
         <v>=I25</v>
       </c>
       <c r="T159" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="U159" t="str">
         <f>I25</f>
@@ -7186,7 +7180,7 @@
         <v>=J25</v>
       </c>
       <c r="T160" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="U160">
         <f>J25</f>
@@ -7214,7 +7208,7 @@
         <v>=K25</v>
       </c>
       <c r="T161" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="U161">
         <f>K25</f>
@@ -7266,9 +7260,9 @@
         <v>=G26</v>
       </c>
       <c r="T164" t="s">
-        <v>170</v>
-      </c>
-      <c r="U164" s="23">
+        <v>166</v>
+      </c>
+      <c r="U164" s="25">
         <f>G26</f>
         <v>43760</v>
       </c>
@@ -7279,7 +7273,7 @@
       </c>
       <c r="B165" s="9" t="str">
         <f t="shared" si="65"/>
-        <v>Transformações lineares entre dois espaços</v>
+        <v>Matrizes de transformações</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>55</v>
@@ -7299,7 +7293,7 @@
         <v>=H26</v>
       </c>
       <c r="T165" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="U165" t="str">
         <f>H26</f>
@@ -7332,11 +7326,11 @@
         <v>=I26</v>
       </c>
       <c r="T166" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="U166" t="str">
         <f>I26</f>
-        <v>Transformações lineares entre dois espaços</v>
+        <v>Matrizes de transformações</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -7365,7 +7359,7 @@
         <v>=J26</v>
       </c>
       <c r="T167" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="U167">
         <f>J26</f>
@@ -7393,7 +7387,7 @@
         <v>=K26</v>
       </c>
       <c r="T168" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="U168">
         <f>K26</f>
@@ -7445,9 +7439,9 @@
         <v>=G27</v>
       </c>
       <c r="T171" t="s">
-        <v>175</v>
-      </c>
-      <c r="U171" s="23">
+        <v>171</v>
+      </c>
+      <c r="U171" s="25">
         <f>G27</f>
         <v>43762</v>
       </c>
@@ -7478,7 +7472,7 @@
         <v>=H27</v>
       </c>
       <c r="T172" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="U172" t="str">
         <f>H27</f>
@@ -7511,7 +7505,7 @@
         <v>=I27</v>
       </c>
       <c r="T173" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="U173" t="str">
         <f>I27</f>
@@ -7544,7 +7538,7 @@
         <v>=J27</v>
       </c>
       <c r="T174" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U174">
         <f>J27</f>
@@ -7572,7 +7566,7 @@
         <v>=K27</v>
       </c>
       <c r="T175" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="U175">
         <f>K27</f>
@@ -7624,9 +7618,9 @@
         <v>=G28</v>
       </c>
       <c r="T178" t="s">
-        <v>180</v>
-      </c>
-      <c r="U178" s="23">
+        <v>176</v>
+      </c>
+      <c r="U178" s="25">
         <f>G28</f>
         <v>43767</v>
       </c>
@@ -7637,7 +7631,7 @@
       </c>
       <c r="B179" s="9" t="str">
         <f t="shared" si="71"/>
-        <v>Semana Acadêmica de Matemática</v>
+        <v>Espaço L(U,V)</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>55</v>
@@ -7657,7 +7651,7 @@
         <v>=H28</v>
       </c>
       <c r="T179" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="U179" t="str">
         <f>H28</f>
@@ -7690,11 +7684,11 @@
         <v>=I28</v>
       </c>
       <c r="T180" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="U180" t="str">
         <f>I28</f>
-        <v>Semana Acadêmica de Matemática</v>
+        <v>Espaço L(U,V)</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -7703,7 +7697,7 @@
       </c>
       <c r="B181" s="10">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>55</v>
@@ -7723,7 +7717,7 @@
         <v>=J28</v>
       </c>
       <c r="T181" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="U181">
         <f>J28</f>
@@ -7751,11 +7745,11 @@
         <v>=K28</v>
       </c>
       <c r="T182" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="U182">
         <f>K28</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -7803,9 +7797,9 @@
         <v>=G29</v>
       </c>
       <c r="T185" t="s">
-        <v>185</v>
-      </c>
-      <c r="U185" s="23">
+        <v>181</v>
+      </c>
+      <c r="U185" s="25">
         <f>G29</f>
         <v>43769</v>
       </c>
@@ -7836,7 +7830,7 @@
         <v>=H29</v>
       </c>
       <c r="T186" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="U186" t="str">
         <f>H29</f>
@@ -7869,7 +7863,7 @@
         <v>=I29</v>
       </c>
       <c r="T187" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="U187" t="str">
         <f>I29</f>
@@ -7902,7 +7896,7 @@
         <v>=J29</v>
       </c>
       <c r="T188" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="U188">
         <f>J29</f>
@@ -7930,7 +7924,7 @@
         <v>=K29</v>
       </c>
       <c r="T189" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="U189">
         <f>K29</f>
@@ -7982,9 +7976,9 @@
         <v>=G30</v>
       </c>
       <c r="T192" t="s">
-        <v>190</v>
-      </c>
-      <c r="U192" s="23">
+        <v>186</v>
+      </c>
+      <c r="U192" s="25">
         <f>G30</f>
         <v>43774</v>
       </c>
@@ -8015,7 +8009,7 @@
         <v>=H30</v>
       </c>
       <c r="T193" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="U193" t="str">
         <f>H30</f>
@@ -8048,7 +8042,7 @@
         <v>=I30</v>
       </c>
       <c r="T194" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="U194" t="str">
         <f>I30</f>
@@ -8081,7 +8075,7 @@
         <v>=J30</v>
       </c>
       <c r="T195" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="U195">
         <f>J30</f>
@@ -8109,7 +8103,7 @@
         <v>=K30</v>
       </c>
       <c r="T196" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="U196">
         <f>K30</f>
@@ -8161,9 +8155,9 @@
         <v>=G31</v>
       </c>
       <c r="T199" t="s">
-        <v>195</v>
-      </c>
-      <c r="U199" s="23">
+        <v>191</v>
+      </c>
+      <c r="U199" s="25">
         <f>G31</f>
         <v>43776</v>
       </c>
@@ -8194,7 +8188,7 @@
         <v>=H31</v>
       </c>
       <c r="T200" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="U200" t="str">
         <f>H31</f>
@@ -8227,7 +8221,7 @@
         <v>=I31</v>
       </c>
       <c r="T201" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="U201" t="str">
         <f>I31</f>
@@ -8260,7 +8254,7 @@
         <v>=J31</v>
       </c>
       <c r="T202" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="U202">
         <f>J31</f>
@@ -8288,7 +8282,7 @@
         <v>=K31</v>
       </c>
       <c r="T203" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U203">
         <f>K31</f>
@@ -8340,9 +8334,9 @@
         <v>=G32</v>
       </c>
       <c r="T206" t="s">
-        <v>200</v>
-      </c>
-      <c r="U206" s="23">
+        <v>196</v>
+      </c>
+      <c r="U206" s="25">
         <f>G32</f>
         <v>43781</v>
       </c>
@@ -8373,7 +8367,7 @@
         <v>=H32</v>
       </c>
       <c r="T207" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="U207" t="str">
         <f>H32</f>
@@ -8406,7 +8400,7 @@
         <v>=I32</v>
       </c>
       <c r="T208" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U208" t="str">
         <f>I32</f>
@@ -8439,7 +8433,7 @@
         <v>=J32</v>
       </c>
       <c r="T209" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="U209">
         <f>J32</f>
@@ -8467,7 +8461,7 @@
         <v>=K32</v>
       </c>
       <c r="T210" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="U210">
         <f>K32</f>
@@ -8519,9 +8513,9 @@
         <v>=G33</v>
       </c>
       <c r="T213" t="s">
-        <v>205</v>
-      </c>
-      <c r="U213" s="23">
+        <v>201</v>
+      </c>
+      <c r="U213" s="25">
         <f>G33</f>
         <v>43783</v>
       </c>
@@ -8552,7 +8546,7 @@
         <v>=H33</v>
       </c>
       <c r="T214" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="U214" t="str">
         <f>H33</f>
@@ -8585,7 +8579,7 @@
         <v>=I33</v>
       </c>
       <c r="T215" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="U215" t="str">
         <f>I33</f>
@@ -8618,7 +8612,7 @@
         <v>=J33</v>
       </c>
       <c r="T216" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="U216">
         <f>J33</f>
@@ -8646,7 +8640,7 @@
         <v>=K33</v>
       </c>
       <c r="T217" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="U217">
         <f>K33</f>
@@ -8698,9 +8692,9 @@
         <v>=G34</v>
       </c>
       <c r="T220" t="s">
-        <v>210</v>
-      </c>
-      <c r="U220" s="23">
+        <v>206</v>
+      </c>
+      <c r="U220" s="25">
         <f>G34</f>
         <v>43788</v>
       </c>
@@ -8731,7 +8725,7 @@
         <v>=H34</v>
       </c>
       <c r="T221" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="U221" t="str">
         <f>H34</f>
@@ -8764,7 +8758,7 @@
         <v>=I34</v>
       </c>
       <c r="T222" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="U222" t="str">
         <f>I34</f>
@@ -8797,7 +8791,7 @@
         <v>=J34</v>
       </c>
       <c r="T223" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="U223">
         <f>J34</f>
@@ -8825,7 +8819,7 @@
         <v>=K34</v>
       </c>
       <c r="T224" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="U224">
         <f>K34</f>
@@ -8877,9 +8871,9 @@
         <v>=G35</v>
       </c>
       <c r="T227" t="s">
-        <v>215</v>
-      </c>
-      <c r="U227" s="23">
+        <v>211</v>
+      </c>
+      <c r="U227" s="25">
         <f>G35</f>
         <v>43790</v>
       </c>
@@ -8910,7 +8904,7 @@
         <v>=H35</v>
       </c>
       <c r="T228" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U228" t="str">
         <f>H35</f>
@@ -8943,7 +8937,7 @@
         <v>=I35</v>
       </c>
       <c r="T229" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="U229" t="str">
         <f>I35</f>
@@ -8976,7 +8970,7 @@
         <v>=J35</v>
       </c>
       <c r="T230" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="U230">
         <f>J35</f>
@@ -9004,7 +8998,7 @@
         <v>=K35</v>
       </c>
       <c r="T231" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="U231">
         <f>K35</f>
@@ -9056,9 +9050,9 @@
         <v>=G36</v>
       </c>
       <c r="T234" t="s">
-        <v>220</v>
-      </c>
-      <c r="U234" s="23">
+        <v>216</v>
+      </c>
+      <c r="U234" s="25">
         <f>G36</f>
         <v>43795</v>
       </c>
@@ -9089,7 +9083,7 @@
         <v>=H36</v>
       </c>
       <c r="T235" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="U235" t="str">
         <f>H36</f>
@@ -9122,7 +9116,7 @@
         <v>=I36</v>
       </c>
       <c r="T236" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="U236" t="str">
         <f>I36</f>
@@ -9155,7 +9149,7 @@
         <v>=J36</v>
       </c>
       <c r="T237" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="U237">
         <f>J36</f>
@@ -9183,7 +9177,7 @@
         <v>=K36</v>
       </c>
       <c r="T238" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="U238">
         <f>K36</f>
@@ -9235,9 +9229,9 @@
         <v>=G37</v>
       </c>
       <c r="T241" t="s">
-        <v>225</v>
-      </c>
-      <c r="U241" s="23">
+        <v>221</v>
+      </c>
+      <c r="U241" s="25">
         <f>G37</f>
         <v>43797</v>
       </c>
@@ -9268,7 +9262,7 @@
         <v>=H37</v>
       </c>
       <c r="T242" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="U242" t="str">
         <f>H37</f>
@@ -9301,7 +9295,7 @@
         <v>=I37</v>
       </c>
       <c r="T243" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="U243" t="str">
         <f>I37</f>
@@ -9334,7 +9328,7 @@
         <v>=J37</v>
       </c>
       <c r="T244" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="U244">
         <f>J37</f>
@@ -9362,7 +9356,7 @@
         <v>=K37</v>
       </c>
       <c r="T245" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="U245">
         <f>K37</f>
@@ -9414,9 +9408,9 @@
         <v>=G38</v>
       </c>
       <c r="T248" t="s">
-        <v>230</v>
-      </c>
-      <c r="U248" s="23">
+        <v>226</v>
+      </c>
+      <c r="U248" s="25">
         <f>G38</f>
         <v>43802</v>
       </c>
@@ -9447,7 +9441,7 @@
         <v>=H38</v>
       </c>
       <c r="T249" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="U249" t="str">
         <f>H38</f>
@@ -9480,7 +9474,7 @@
         <v>=I38</v>
       </c>
       <c r="T250" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="U250" t="str">
         <f>I38</f>
@@ -9513,7 +9507,7 @@
         <v>=J38</v>
       </c>
       <c r="T251" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="U251">
         <f>J38</f>
@@ -9541,7 +9535,7 @@
         <v>=K38</v>
       </c>
       <c r="T252" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="U252">
         <f>K38</f>
@@ -9593,9 +9587,9 @@
         <v>=G39</v>
       </c>
       <c r="T255" t="s">
-        <v>235</v>
-      </c>
-      <c r="U255" s="23">
+        <v>231</v>
+      </c>
+      <c r="U255" s="25">
         <f>G39</f>
         <v>43809</v>
       </c>
@@ -9626,7 +9620,7 @@
         <v>=H39</v>
       </c>
       <c r="T256" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="U256" t="str">
         <f>H39</f>
@@ -9659,7 +9653,7 @@
         <v>=I39</v>
       </c>
       <c r="T257" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="U257" t="str">
         <f>I39</f>
@@ -9692,7 +9686,7 @@
         <v>=J39</v>
       </c>
       <c r="T258" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="U258">
         <f>J39</f>
@@ -9720,7 +9714,7 @@
         <v>=K39</v>
       </c>
       <c r="T259" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="U259">
         <f>K39</f>
